--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/C3-Itgax.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/C3-Itgax.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.67831</v>
+        <v>2.0407475</v>
       </c>
       <c r="H2">
-        <v>1.35662</v>
+        <v>4.081495</v>
       </c>
       <c r="I2">
-        <v>0.004405345910740629</v>
+        <v>0.007689531190315315</v>
       </c>
       <c r="J2">
-        <v>0.002944056215323526</v>
+        <v>0.005145434208836267</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.983953</v>
+        <v>7.318981333333333</v>
       </c>
       <c r="N2">
-        <v>65.951859</v>
+        <v>21.956944</v>
       </c>
       <c r="O2">
-        <v>0.3824831516716194</v>
+        <v>0.1531761772116645</v>
       </c>
       <c r="P2">
-        <v>0.3824831516716194</v>
+        <v>0.1531761772116645</v>
       </c>
       <c r="Q2">
-        <v>14.91193515943</v>
+        <v>14.93619285854667</v>
       </c>
       <c r="R2">
-        <v>89.47161095657999</v>
+        <v>89.61715715128001</v>
       </c>
       <c r="S2">
-        <v>0.001684970588143757</v>
+        <v>0.00117785299228236</v>
       </c>
       <c r="T2">
-        <v>0.001126051899935362</v>
+        <v>0.0007881579422036646</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.67831</v>
+        <v>2.0407475</v>
       </c>
       <c r="H3">
-        <v>1.35662</v>
+        <v>4.081495</v>
       </c>
       <c r="I3">
-        <v>0.004405345910740629</v>
+        <v>0.007689531190315315</v>
       </c>
       <c r="J3">
-        <v>0.002944056215323526</v>
+        <v>0.005145434208836267</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.1176083333333334</v>
+        <v>32.599203</v>
       </c>
       <c r="N3">
-        <v>0.3528250000000001</v>
+        <v>97.79760900000001</v>
       </c>
       <c r="O3">
-        <v>0.002046183686627229</v>
+        <v>0.6822563234237459</v>
       </c>
       <c r="P3">
-        <v>0.002046183686627229</v>
+        <v>0.6822563234237459</v>
       </c>
       <c r="Q3">
-        <v>0.07977490858333335</v>
+        <v>66.52674202424251</v>
       </c>
       <c r="R3">
-        <v>0.4786494515</v>
+        <v>399.1604521454551</v>
       </c>
       <c r="S3">
-        <v>9.014146936507446E-06</v>
+        <v>0.005246231278756747</v>
       </c>
       <c r="T3">
-        <v>6.024079800308499E-06</v>
+        <v>0.003510505025739402</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.67831</v>
+        <v>2.0407475</v>
       </c>
       <c r="H4">
-        <v>1.35662</v>
+        <v>4.081495</v>
       </c>
       <c r="I4">
-        <v>0.004405345910740629</v>
+        <v>0.007689531190315315</v>
       </c>
       <c r="J4">
-        <v>0.002944056215323526</v>
+        <v>0.005145434208836267</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>35.37535733333333</v>
+        <v>7.863275333333333</v>
       </c>
       <c r="N4">
-        <v>106.126072</v>
+        <v>23.589826</v>
       </c>
       <c r="O4">
-        <v>0.6154706646417534</v>
+        <v>0.1645674993645896</v>
       </c>
       <c r="P4">
-        <v>0.6154706646417534</v>
+        <v>0.1645674993645896</v>
       </c>
       <c r="Q4">
-        <v>23.99545863277333</v>
+        <v>16.04695947831167</v>
       </c>
       <c r="R4">
-        <v>143.97275179664</v>
+        <v>96.28175686987001</v>
       </c>
       <c r="S4">
-        <v>0.002711361175660365</v>
+        <v>0.001265446919276208</v>
       </c>
       <c r="T4">
-        <v>0.001811980235587856</v>
+        <v>0.0008467712408932001</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,10 +735,10 @@
         <v>324.26945</v>
       </c>
       <c r="I5">
-        <v>0.7019991329115071</v>
+        <v>0.4072821437310581</v>
       </c>
       <c r="J5">
-        <v>0.7037103166045329</v>
+        <v>0.4087980313366845</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.983953</v>
+        <v>7.318981333333333</v>
       </c>
       <c r="N5">
-        <v>65.951859</v>
+        <v>21.956944</v>
       </c>
       <c r="O5">
-        <v>0.3824831516716194</v>
+        <v>0.1531761772116645</v>
       </c>
       <c r="P5">
-        <v>0.3824831516716194</v>
+        <v>0.1531761772116645</v>
       </c>
       <c r="Q5">
-        <v>2376.241449378616</v>
+        <v>791.1073505067556</v>
       </c>
       <c r="R5">
-        <v>21386.17304440755</v>
+        <v>7119.966154560801</v>
       </c>
       <c r="S5">
-        <v>0.2685028408267373</v>
+        <v>0.06238592182329516</v>
       </c>
       <c r="T5">
-        <v>0.2691573397587349</v>
+        <v>0.06261811969180756</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>324.26945</v>
       </c>
       <c r="I6">
-        <v>0.7019991329115071</v>
+        <v>0.4072821437310581</v>
       </c>
       <c r="J6">
-        <v>0.7037103166045329</v>
+        <v>0.4087980313366845</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1176083333333334</v>
+        <v>32.599203</v>
       </c>
       <c r="N6">
-        <v>0.3528250000000001</v>
+        <v>97.79760900000001</v>
       </c>
       <c r="O6">
-        <v>0.002046183686627229</v>
+        <v>0.6822563234237459</v>
       </c>
       <c r="P6">
-        <v>0.002046183686627229</v>
+        <v>0.6822563234237459</v>
       </c>
       <c r="Q6">
-        <v>12.71226318847222</v>
+        <v>3523.64187574945</v>
       </c>
       <c r="R6">
-        <v>114.41036869625</v>
+        <v>31712.77688174505</v>
       </c>
       <c r="S6">
-        <v>0.001436419173789985</v>
+        <v>0.2778708179780933</v>
       </c>
       <c r="T6">
-        <v>0.001439920569947477</v>
+        <v>0.2789050418826317</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>324.26945</v>
       </c>
       <c r="I7">
-        <v>0.7019991329115071</v>
+        <v>0.4072821437310581</v>
       </c>
       <c r="J7">
-        <v>0.7037103166045329</v>
+        <v>0.4087980313366845</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>35.37535733333333</v>
+        <v>7.863275333333333</v>
       </c>
       <c r="N7">
-        <v>106.126072</v>
+        <v>23.589826</v>
       </c>
       <c r="O7">
-        <v>0.6154706646417534</v>
+        <v>0.1645674993645896</v>
       </c>
       <c r="P7">
-        <v>0.6154706646417534</v>
+        <v>0.1645674993645896</v>
       </c>
       <c r="Q7">
-        <v>3823.715888677822</v>
+        <v>849.9399891795222</v>
       </c>
       <c r="R7">
-        <v>34413.4429981004</v>
+        <v>7649.459902615699</v>
       </c>
       <c r="S7">
-        <v>0.4320598729109798</v>
+        <v>0.0670254039296696</v>
       </c>
       <c r="T7">
-        <v>0.4331130562758506</v>
+        <v>0.06727486976224532</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>17.58332566666667</v>
+        <v>49.59263000000001</v>
       </c>
       <c r="H8">
-        <v>52.749977</v>
+        <v>148.77789</v>
       </c>
       <c r="I8">
-        <v>0.114196505761187</v>
+        <v>0.18686489886415</v>
       </c>
       <c r="J8">
-        <v>0.1144748696355818</v>
+        <v>0.1875604024320694</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.983953</v>
+        <v>7.318981333333333</v>
       </c>
       <c r="N8">
-        <v>65.951859</v>
+        <v>21.956944</v>
       </c>
       <c r="O8">
-        <v>0.3824831516716194</v>
+        <v>0.1531761772116645</v>
       </c>
       <c r="P8">
-        <v>0.3824831516716194</v>
+        <v>0.1531761772116645</v>
       </c>
       <c r="Q8">
-        <v>386.5510050396937</v>
+        <v>362.9675332409067</v>
       </c>
       <c r="R8">
-        <v>3478.959045357243</v>
+        <v>3266.70779916816</v>
       </c>
       <c r="S8">
-        <v>0.04367823943342505</v>
+        <v>0.02862325086305481</v>
       </c>
       <c r="T8">
-        <v>0.04378470892541511</v>
+        <v>0.02872978544082577</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>17.58332566666667</v>
+        <v>49.59263000000001</v>
       </c>
       <c r="H9">
-        <v>52.749977</v>
+        <v>148.77789</v>
       </c>
       <c r="I9">
-        <v>0.114196505761187</v>
+        <v>0.18686489886415</v>
       </c>
       <c r="J9">
-        <v>0.1144748696355818</v>
+        <v>0.1875604024320694</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1176083333333334</v>
+        <v>32.599203</v>
       </c>
       <c r="N9">
-        <v>0.3528250000000001</v>
+        <v>97.79760900000001</v>
       </c>
       <c r="O9">
-        <v>0.002046183686627229</v>
+        <v>0.6822563234237459</v>
       </c>
       <c r="P9">
-        <v>0.002046183686627229</v>
+        <v>0.6822563234237459</v>
       </c>
       <c r="Q9">
-        <v>2.06794562611389</v>
+        <v>1616.68021267389</v>
       </c>
       <c r="R9">
-        <v>18.611510635025</v>
+        <v>14550.12191406501</v>
       </c>
       <c r="S9">
-        <v>0.0002336670271583732</v>
+        <v>0.1274897588760051</v>
       </c>
       <c r="T9">
-        <v>0.0002342366107771062</v>
+        <v>0.1279642705831819</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>17.58332566666667</v>
+        <v>49.59263000000001</v>
       </c>
       <c r="H10">
-        <v>52.749977</v>
+        <v>148.77789</v>
       </c>
       <c r="I10">
-        <v>0.114196505761187</v>
+        <v>0.18686489886415</v>
       </c>
       <c r="J10">
-        <v>0.1144748696355818</v>
+        <v>0.1875604024320694</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>35.37535733333333</v>
+        <v>7.863275333333333</v>
       </c>
       <c r="N10">
-        <v>106.126072</v>
+        <v>23.589826</v>
       </c>
       <c r="O10">
-        <v>0.6154706646417534</v>
+        <v>0.1645674993645896</v>
       </c>
       <c r="P10">
-        <v>0.6154706646417534</v>
+        <v>0.1645674993645896</v>
       </c>
       <c r="Q10">
-        <v>622.0164285667049</v>
+        <v>389.9605041941267</v>
       </c>
       <c r="R10">
-        <v>5598.147857100344</v>
+        <v>3509.64453774714</v>
       </c>
       <c r="S10">
-        <v>0.07028459930060359</v>
+        <v>0.03075188912509012</v>
       </c>
       <c r="T10">
-        <v>0.07045592409938962</v>
+        <v>0.03086634640806176</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.444929</v>
+        <v>0.9116095</v>
       </c>
       <c r="H11">
-        <v>0.889858</v>
+        <v>1.823219</v>
       </c>
       <c r="I11">
-        <v>0.002889631806577992</v>
+        <v>0.003434942188407801</v>
       </c>
       <c r="J11">
-        <v>0.001931117022935945</v>
+        <v>0.002298484602529281</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.983953</v>
+        <v>7.318981333333333</v>
       </c>
       <c r="N11">
-        <v>65.951859</v>
+        <v>21.956944</v>
       </c>
       <c r="O11">
-        <v>0.3824831516716194</v>
+        <v>0.1531761772116645</v>
       </c>
       <c r="P11">
-        <v>0.3824831516716194</v>
+        <v>0.1531761772116645</v>
       </c>
       <c r="Q11">
-        <v>9.781298224337</v>
+        <v>6.672052913789333</v>
       </c>
       <c r="R11">
-        <v>58.687789346022</v>
+        <v>40.032317482736</v>
       </c>
       <c r="S11">
-        <v>0.001105235480550506</v>
+        <v>0.0005261513133633759</v>
       </c>
       <c r="T11">
-        <v>0.0007386197251792554</v>
+        <v>0.0003520730847953074</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.444929</v>
+        <v>0.9116095</v>
       </c>
       <c r="H12">
-        <v>0.889858</v>
+        <v>1.823219</v>
       </c>
       <c r="I12">
-        <v>0.002889631806577992</v>
+        <v>0.003434942188407801</v>
       </c>
       <c r="J12">
-        <v>0.001931117022935945</v>
+        <v>0.002298484602529281</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1176083333333334</v>
+        <v>32.599203</v>
       </c>
       <c r="N12">
-        <v>0.3528250000000001</v>
+        <v>97.79760900000001</v>
       </c>
       <c r="O12">
-        <v>0.002046183686627229</v>
+        <v>0.6822563234237459</v>
       </c>
       <c r="P12">
-        <v>0.002046183686627229</v>
+        <v>0.6822563234237459</v>
       </c>
       <c r="Q12">
-        <v>0.05232735814166668</v>
+        <v>29.7177431472285</v>
       </c>
       <c r="R12">
-        <v>0.3139641488500001</v>
+        <v>178.306458883371</v>
       </c>
       <c r="S12">
-        <v>5.912717462979054E-06</v>
+        <v>0.002343511028636222</v>
       </c>
       <c r="T12">
-        <v>3.951420149299671E-06</v>
+        <v>0.001568155654367717</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.444929</v>
+        <v>0.9116095</v>
       </c>
       <c r="H13">
-        <v>0.889858</v>
+        <v>1.823219</v>
       </c>
       <c r="I13">
-        <v>0.002889631806577992</v>
+        <v>0.003434942188407801</v>
       </c>
       <c r="J13">
-        <v>0.001931117022935945</v>
+        <v>0.002298484602529281</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>35.37535733333333</v>
+        <v>7.863275333333333</v>
       </c>
       <c r="N13">
-        <v>106.126072</v>
+        <v>23.589826</v>
       </c>
       <c r="O13">
-        <v>0.6154706646417534</v>
+        <v>0.1645674993645896</v>
       </c>
       <c r="P13">
-        <v>0.6154706646417534</v>
+        <v>0.1645674993645896</v>
       </c>
       <c r="Q13">
-        <v>15.73952236296267</v>
+        <v>7.168236494982333</v>
       </c>
       <c r="R13">
-        <v>94.437134177776</v>
+        <v>43.00941896989399</v>
       </c>
       <c r="S13">
-        <v>0.001778483608564507</v>
+        <v>0.000565279846408203</v>
       </c>
       <c r="T13">
-        <v>0.00118854587760739</v>
+        <v>0.0003782558633662566</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.181792</v>
+        <v>97.62255466666666</v>
       </c>
       <c r="H14">
-        <v>3.545376</v>
+        <v>292.867664</v>
       </c>
       <c r="I14">
-        <v>0.007675255494605696</v>
+        <v>0.3678415281594588</v>
       </c>
       <c r="J14">
-        <v>0.00769396459469775</v>
+        <v>0.3692106193949926</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>21.983953</v>
+        <v>7.318981333333333</v>
       </c>
       <c r="N14">
-        <v>65.951859</v>
+        <v>21.956944</v>
       </c>
       <c r="O14">
-        <v>0.3824831516716194</v>
+        <v>0.1531761772116645</v>
       </c>
       <c r="P14">
-        <v>0.3824831516716194</v>
+        <v>0.1531761772116645</v>
       </c>
       <c r="Q14">
-        <v>25.980459783776</v>
+        <v>714.4976553176461</v>
       </c>
       <c r="R14">
-        <v>233.824138053984</v>
+        <v>6430.478897858816</v>
       </c>
       <c r="S14">
-        <v>0.002935655911461701</v>
+        <v>0.05634455910316274</v>
       </c>
       <c r="T14">
-        <v>0.00294281182702985</v>
+        <v>0.0565542712648758</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.181792</v>
+        <v>97.62255466666666</v>
       </c>
       <c r="H15">
-        <v>3.545376</v>
+        <v>292.867664</v>
       </c>
       <c r="I15">
-        <v>0.007675255494605696</v>
+        <v>0.3678415281594588</v>
       </c>
       <c r="J15">
-        <v>0.00769396459469775</v>
+        <v>0.3692106193949926</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.1176083333333334</v>
+        <v>32.599203</v>
       </c>
       <c r="N15">
-        <v>0.3528250000000001</v>
+        <v>97.79760900000001</v>
       </c>
       <c r="O15">
-        <v>0.002046183686627229</v>
+        <v>0.6822563234237459</v>
       </c>
       <c r="P15">
-        <v>0.002046183686627229</v>
+        <v>0.6822563234237459</v>
       </c>
       <c r="Q15">
-        <v>0.1389885874666667</v>
+        <v>3182.417476957264</v>
       </c>
       <c r="R15">
-        <v>1.2508972872</v>
+        <v>28641.75729261538</v>
       </c>
       <c r="S15">
-        <v>1.570498258375818E-05</v>
+        <v>0.2509622086046446</v>
       </c>
       <c r="T15">
-        <v>1.574326483915801E-05</v>
+        <v>0.2518962797574316</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.181792</v>
+        <v>97.62255466666666</v>
       </c>
       <c r="H16">
-        <v>3.545376</v>
+        <v>292.867664</v>
       </c>
       <c r="I16">
-        <v>0.007675255494605696</v>
+        <v>0.3678415281594588</v>
       </c>
       <c r="J16">
-        <v>0.00769396459469775</v>
+        <v>0.3692106193949926</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>35.37535733333333</v>
+        <v>7.863275333333333</v>
       </c>
       <c r="N16">
-        <v>106.126072</v>
+        <v>23.589826</v>
       </c>
       <c r="O16">
-        <v>0.6154706646417534</v>
+        <v>0.1645674993645896</v>
       </c>
       <c r="P16">
-        <v>0.6154706646417534</v>
+        <v>0.1645674993645896</v>
       </c>
       <c r="Q16">
-        <v>41.80631429367467</v>
+        <v>767.6330260873848</v>
       </c>
       <c r="R16">
-        <v>376.256828643072</v>
+        <v>6908.697234786463</v>
       </c>
       <c r="S16">
-        <v>0.004723894600560237</v>
+        <v>0.06053476045165142</v>
       </c>
       <c r="T16">
-        <v>0.004735409502828743</v>
+        <v>0.0607600683726852</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>25.99611466666667</v>
+        <v>7.135609000000001</v>
       </c>
       <c r="H17">
-        <v>77.988344</v>
+        <v>21.406827</v>
       </c>
       <c r="I17">
-        <v>0.1688341281153816</v>
+        <v>0.02688695586661</v>
       </c>
       <c r="J17">
-        <v>0.1692456759269281</v>
+        <v>0.0269870280248879</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>21.983953</v>
+        <v>7.318981333333333</v>
       </c>
       <c r="N17">
-        <v>65.951859</v>
+        <v>21.956944</v>
       </c>
       <c r="O17">
-        <v>0.3824831516716194</v>
+        <v>0.1531761772116645</v>
       </c>
       <c r="P17">
-        <v>0.3824831516716194</v>
+        <v>0.1531761772116645</v>
       </c>
       <c r="Q17">
-        <v>571.4973630146106</v>
+        <v>52.22538907296534</v>
       </c>
       <c r="R17">
-        <v>5143.476267131496</v>
+        <v>470.0285016566881</v>
       </c>
       <c r="S17">
-        <v>0.06457620943130114</v>
+        <v>0.004118441116506055</v>
       </c>
       <c r="T17">
-        <v>0.064733619535325</v>
+        <v>0.004133769787156385</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>25.99611466666667</v>
+        <v>7.135609000000001</v>
       </c>
       <c r="H18">
-        <v>77.988344</v>
+        <v>21.406827</v>
       </c>
       <c r="I18">
-        <v>0.1688341281153816</v>
+        <v>0.02688695586661</v>
       </c>
       <c r="J18">
-        <v>0.1692456759269281</v>
+        <v>0.0269870280248879</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.1176083333333334</v>
+        <v>32.599203</v>
       </c>
       <c r="N18">
-        <v>0.3528250000000001</v>
+        <v>97.79760900000001</v>
       </c>
       <c r="O18">
-        <v>0.002046183686627229</v>
+        <v>0.6822563234237459</v>
       </c>
       <c r="P18">
-        <v>0.002046183686627229</v>
+        <v>0.6822563234237459</v>
       </c>
       <c r="Q18">
-        <v>3.05735971908889</v>
+        <v>232.6151663196271</v>
       </c>
       <c r="R18">
-        <v>27.5162374718</v>
+        <v>2093.536496876643</v>
       </c>
       <c r="S18">
-        <v>0.0003454656386956254</v>
+        <v>0.01834379565760985</v>
       </c>
       <c r="T18">
-        <v>0.0003463077411138789</v>
+        <v>0.01841207052039361</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>25.99611466666667</v>
+        <v>7.135609000000001</v>
       </c>
       <c r="H19">
-        <v>77.988344</v>
+        <v>21.406827</v>
       </c>
       <c r="I19">
-        <v>0.1688341281153816</v>
+        <v>0.02688695586661</v>
       </c>
       <c r="J19">
-        <v>0.1692456759269281</v>
+        <v>0.0269870280248879</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>35.37535733333333</v>
+        <v>7.863275333333333</v>
       </c>
       <c r="N19">
-        <v>106.126072</v>
+        <v>23.589826</v>
       </c>
       <c r="O19">
-        <v>0.6154706646417534</v>
+        <v>0.1645674993645896</v>
       </c>
       <c r="P19">
-        <v>0.6154706646417534</v>
+        <v>0.1645674993645896</v>
       </c>
       <c r="Q19">
-        <v>919.6218456116409</v>
+        <v>56.10925823801134</v>
       </c>
       <c r="R19">
-        <v>8276.596610504766</v>
+        <v>504.983324142102</v>
       </c>
       <c r="S19">
-        <v>0.1039124530453849</v>
+        <v>0.00442471909249409</v>
       </c>
       <c r="T19">
-        <v>0.1041657486504892</v>
+        <v>0.004441187717337903</v>
       </c>
     </row>
   </sheetData>
